--- a/src/main/resources/SampleScriptW/Utility/SeleniumUtility.xlsx
+++ b/src/main/resources/SampleScriptW/Utility/SeleniumUtility.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
   <si>
     <t xml:space="preserve">File\Folder Name</t>
   </si>
@@ -72,6 +72,99 @@
   </si>
   <si>
     <t xml:space="preserve">Test Suite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C:\SampleScriptW\TestSuite\Test_Suite_EP.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Script</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C:\SampleScriptW\TestCase\EP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Object Repository</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C:\SampleScriptW\TestOR\DemoOR.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Environment File</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Summary Report</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Report\</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Screen Shot Report</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Report\Screenshot\</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Browser Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DriverPath</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C:\SampleScriptW\Driver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TempTestReportPath</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C:\SampleScriptW\Temp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FileManager EXE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C:\SampleScriptW\FileManager\FileManager.exe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">database</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mysql</t>
+  </si>
+  <si>
+    <t xml:space="preserve">host_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">localhost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">portnumber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">schemaname/Databasename</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">username</t>
+  </si>
+  <si>
+    <t xml:space="preserve">root</t>
+  </si>
+  <si>
+    <t xml:space="preserve">password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">update</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reusableComponents</t>
   </si>
   <si>
     <r>
@@ -80,108 +173,9 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">webapps-exploded\AutoTest\webapp\WEB-INF\classes\SampleScriptW</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">\TestSuite\Test_Suite_EP.xlsx</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Test Script</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">webapps-exploded\AutoTest\webapp\WEB-INF\classes\SampleScriptW</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">\TestCase\EP</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Object Repository</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">webapps-exploded\AutoTest\webapp\WEB-INF\classes\SampleScriptW</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">\TestOR\DemoOR.xlsx</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Environment File</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Summary Report</t>
-  </si>
-  <si>
-    <t xml:space="preserve">webapps-exploded\AutoTest\webapp\resources\Report\</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Screen Shot Report</t>
-  </si>
-  <si>
-    <t xml:space="preserve">webapps-exploded\AutoTest\webapp\resources\Report\Screenshot\</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Browser Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DriverPath</t>
-  </si>
-  <si>
-    <t xml:space="preserve">webapps-exploded\AutoTest\webapp\WEB-INF\classes\SampleScriptW\Driver</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TempTestReportPath</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">webapps-exploded\AutoTest\webapp\WEB-INF\classes\</t>
+      <t xml:space="preserve">C:\SampleScriptW\TestCase\</t>
     </r>
     <r>
       <rPr>
@@ -190,87 +184,14 @@
         <rFont val="Calibri"/>
         <family val="3"/>
       </rPr>
-      <t xml:space="preserve">SampleScriptW</t>
+      <t xml:space="preserve">Shopee</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">\Temp</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">FileManager EXE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">webapps-exploded\AutoTest\webapp\WEB-INF\classes\SampleScriptW\FileManager\FileManager.exe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">database</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mysql</t>
-  </si>
-  <si>
-    <t xml:space="preserve">host_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">localhost</t>
-  </si>
-  <si>
-    <t xml:space="preserve">portnumber</t>
-  </si>
-  <si>
-    <t xml:space="preserve">schemaname/Databasename</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">username</t>
-  </si>
-  <si>
-    <t xml:space="preserve">root</t>
-  </si>
-  <si>
-    <t xml:space="preserve">password</t>
-  </si>
-  <si>
-    <t xml:space="preserve">update</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reusableComponents</t>
   </si>
   <si>
     <t xml:space="preserve">Utility</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">webapps-exploded\AutoTest\webapp\WEB-INF\classes\SampleScriptW</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">\SeleniumUtility.xlsx</t>
-    </r>
+    <t xml:space="preserve">C:\SampleScriptW\SeleniumUtility.xlsx</t>
   </si>
   <si>
     <t xml:space="preserve">ie</t>
@@ -337,12 +258,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="3"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="3"/>
       <charset val="1"/>
     </font>
     <font>
@@ -367,6 +282,12 @@
       <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="3"/>
     </font>
     <font>
       <b val="true"/>
@@ -445,11 +366,11 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -482,11 +403,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -578,8 +495,8 @@
   </sheetPr>
   <dimension ref="A1:AA20"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B3" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -789,7 +706,7 @@
       <c r="A7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="0"/>
@@ -954,7 +871,7 @@
       <c r="A12" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="7" t="s">
         <v>22</v>
       </c>
       <c r="C12" s="0"/>
@@ -987,7 +904,7 @@
       <c r="A13" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="7" t="s">
         <v>24</v>
       </c>
       <c r="C13" s="0"/>
@@ -1020,7 +937,7 @@
       <c r="A14" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="8" t="n">
+      <c r="B14" s="7" t="n">
         <v>3306</v>
       </c>
       <c r="C14" s="0"/>
@@ -1053,7 +970,7 @@
       <c r="A15" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="7" t="s">
         <v>27</v>
       </c>
       <c r="C15" s="0"/>
@@ -1086,7 +1003,7 @@
       <c r="A16" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="7" t="s">
         <v>29</v>
       </c>
       <c r="C16" s="0"/>
@@ -1119,7 +1036,7 @@
       <c r="A17" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="8" t="s">
         <v>29</v>
       </c>
       <c r="C17" s="4"/>
@@ -1155,8 +1072,8 @@
       <c r="B18" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
@@ -1186,7 +1103,7 @@
         <v>33</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -1216,10 +1133,10 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20" s="11" t="s">
         <v>35</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1258,12 +1175,12 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1273,67 +1190,67 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="10"/>
+        <v>41</v>
+      </c>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="10"/>
+        <v>42</v>
+      </c>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="10"/>
+        <v>43</v>
+      </c>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
     </row>
   </sheetData>
   <dataValidations count="1">
